--- a/Synthetic_Myddosome_Manuscript/ELISA/Plate_2_20240220/Plate_2_20240220_TLR7_3.xlsx
+++ b/Synthetic_Myddosome_Manuscript/ELISA/Plate_2_20240220/Plate_2_20240220_TLR7_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Elke\ELISA\syn Mydd\Plate_2_20240220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAYLOR-LAB/Synthetic Myddosome Paper/6_Manuscript/Source files/Figure 1/1D/Plate_2_20240220/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDC53C-5D62-4813-813B-F05B1D7C42A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF6B74-6DEA-1943-BE8B-86847BF6FA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-18780" windowWidth="27060" windowHeight="14800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="STIM_CONCENTRATION" sheetId="5" r:id="rId5"/>
     <sheet name="CONDITIONS" sheetId="6" r:id="rId6"/>
     <sheet name="DILUTIONS" sheetId="7" r:id="rId7"/>
-    <sheet name="Info" sheetId="8" r:id="rId8"/>
+    <sheet name="PATHWAY" sheetId="9" r:id="rId8"/>
+    <sheet name="STIMULANT" sheetId="10" r:id="rId9"/>
+    <sheet name="Info" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="25">
   <si>
     <t>250</t>
   </si>
@@ -97,12 +99,18 @@
   <si>
     <t>CONCENTRATION is 50ng/ml</t>
   </si>
+  <si>
+    <t>TLR7</t>
+  </si>
+  <si>
+    <t>R848</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -120,6 +128,20 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,12 +202,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,313 +428,313 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1">
         <v>2.7E-2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1">
         <v>0.96909999999999996</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1">
         <v>1.1552</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1">
         <v>1.0323</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1">
         <v>1.5733999999999999</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1">
         <v>1.4365000000000001</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1">
         <v>1.5263</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1">
         <v>2.4491999999999998</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1">
         <v>2.3633000000000002</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1">
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>0.53239999999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>0.65910000000000002</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>0.58460000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>0.95779999999999998</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>0.88139999999999996</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>0.85640000000000005</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>1.2962</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>1.2882</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>1.2882</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>4.53E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>1.3585</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>1.1786000000000001</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>1.2729999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>0.65390000000000004</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>0.65580000000000005</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>0.63839999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1.9E-2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>1.77E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>0.40479999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>0.42449999999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0.38869999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>0.76670000000000005</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>0.65580000000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>0.69130000000000003</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>0.31059999999999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>0.307</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>0.35489999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>1.61E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>5.21E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>4.36E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>0.14649999999999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>0.1537</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>-3.7000000000000002E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>4.82E-2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>0.8165</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>0.71889999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>0.8498</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>2.69E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>3.09E-2</v>
       </c>
       <c r="C8" s="5">
         <v>2.92E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>0.98209999999999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>0.96630000000000005</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>0.9798</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
@@ -728,6 +753,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
@@ -739,9 +782,9 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -931,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -969,7 +1012,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1050,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,9 +1104,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1383,9 +1426,9 @@
       <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1423,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1702,12 +1745,12 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1821,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2023,17 +2066,17 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2271,14 +2314,14 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -2299,7 +2342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2350,16 +2393,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2397,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2435,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2473,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2607,13 +2650,13 @@
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
@@ -2625,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2669,19 +2712,647 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECD1A1-273B-BD49-B17E-71A096C1C1FB}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED47987-2C1C-7E43-BC6E-A0CAC94A8D8A}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>